--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="55">
   <si>
     <t>Retail Name</t>
   </si>
@@ -152,6 +152,63 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Hriddro mob</t>
+  </si>
+  <si>
+    <t>Mobile park</t>
+  </si>
+  <si>
+    <t>Dipto mob</t>
+  </si>
+  <si>
+    <t>Rasel tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desh mobile </t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-64) </t>
+  </si>
+  <si>
+    <t>Kabir//Mojnu</t>
+  </si>
+  <si>
+    <t>C25s/128</t>
+  </si>
+  <si>
+    <t>Kabir//Farha Telecom</t>
+  </si>
+  <si>
+    <t>C21/64</t>
+  </si>
+  <si>
+    <t>C25s/129</t>
+  </si>
+  <si>
+    <t>C25s/130</t>
+  </si>
+  <si>
+    <t>C25s/131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c21-64) </t>
+  </si>
+  <si>
+    <t>(8-128)</t>
+  </si>
+  <si>
+    <t>Mobile Park</t>
+  </si>
+  <si>
+    <t>Tuhin</t>
   </si>
 </sst>
 </file>
@@ -553,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10627,15 +10684,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -10658,193 +10715,441 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052745574</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052745616</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052745731</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623051373992</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052746358</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092053864978</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623051381870</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623051384338</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052745798</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623051320852</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623051374552</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623051374750</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092052961692</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092051977871</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092053479751</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092053480379</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>869092053866692</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052933717</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092053970759</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052746135</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623051327097</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5">
+        <v>861180050754314</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5">
+        <v>861180050756251</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623051381995</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053970775</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092052949614</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092052947071</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051382613</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051374776</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623050894493</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623051378991</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -11504,6 +11809,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C33">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="74">
   <si>
     <t>Retail Name</t>
   </si>
@@ -209,6 +209,63 @@
   </si>
   <si>
     <t>Tuhin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (8-128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismillah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir//Bismillah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desh </t>
+  </si>
+  <si>
+    <t>s r ele</t>
+  </si>
+  <si>
+    <t>(C25 s64)</t>
+  </si>
+  <si>
+    <t>Papon</t>
+  </si>
+  <si>
+    <t>KABIR//Ranju mob</t>
+  </si>
+  <si>
+    <t>Zilani</t>
+  </si>
+  <si>
+    <t>C25S/128</t>
+  </si>
+  <si>
+    <t>Kabir//Mondol</t>
+  </si>
+  <si>
+    <t>CD Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c25s-128) </t>
+  </si>
+  <si>
+    <t>Kabir//Moriam</t>
+  </si>
+  <si>
+    <t>Kabir//Nahida</t>
+  </si>
+  <si>
+    <t>Kabir//Polok tapukuria</t>
+  </si>
+  <si>
+    <t>Kabir//City Bank Apu</t>
+  </si>
+  <si>
+    <t>ABC Communication</t>
+  </si>
+  <si>
+    <t>c25s/64</t>
   </si>
 </sst>
 </file>
@@ -10684,8 +10741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20670,14 +20727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -20701,206 +20758,462 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053865173</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623051358159</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052164818</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050804572</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050754355</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053867773</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053478993</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623051397710</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623051396837</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053865371</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092053971039</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052949135</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052948715</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052948798</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052948210</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>869092053986896</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092053868995</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092053986813</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092053871999</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050621979</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623051374651</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623051397454</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623051398437</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092053792310</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092052948178</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050749694</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051396894</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051393537</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623051393453</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623051396597</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623051374651</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -21547,6 +21860,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C35">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="83">
   <si>
     <t>Retail Name</t>
   </si>
@@ -266,6 +266,33 @@
   </si>
   <si>
     <t>c25s/64</t>
+  </si>
+  <si>
+    <t>Sohan ent</t>
+  </si>
+  <si>
+    <t>(c25s-64)</t>
+  </si>
+  <si>
+    <t>Boishakhi tel</t>
+  </si>
+  <si>
+    <t>Brothers tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose telecom </t>
+  </si>
+  <si>
+    <t>Bhuiyan mob</t>
+  </si>
+  <si>
+    <t>Kabir//Ma Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zilani </t>
+  </si>
+  <si>
+    <t>Arham</t>
   </si>
 </sst>
 </file>
@@ -20727,8 +20754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23641,16 +23668,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -23672,280 +23699,636 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050809373</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052948491</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053986730</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623051393594</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623051396530</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623051393917</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623051396852</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623051397157</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623051397496</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050265132</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623051370717</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623051396811</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623051397538</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623051396613</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623051397355</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623051393917</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092053864879</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092052623573</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092053986953</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092053418155</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623051397694</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623051398015</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623051393859</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092052948699</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050807690</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051397173</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051397330</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051394030</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051394030</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5">
+        <v>861180050804416</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092052745772</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092053874357</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092053792831</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092053868912</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623051393974</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623051394535</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623051394212</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623051393990</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623051396779</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092052745533</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092053871056</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092053870017</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623051368950</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623051358951</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -24518,6 +24901,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C46">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="87">
   <si>
     <t>Retail Name</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>Arham</t>
+  </si>
+  <si>
+    <t>kabir//Farha Telecom</t>
+  </si>
+  <si>
+    <t>c21/64</t>
+  </si>
+  <si>
+    <t>c21/32</t>
+  </si>
+  <si>
+    <t>Desh Telecom</t>
   </si>
 </sst>
 </file>
@@ -23669,14 +23681,14 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -24331,22 +24343,46 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092053986995</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092053414675</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="4">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5">
+        <v>861180050738192</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
     <sheet name="6" sheetId="6" r:id="rId6"/>
-    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="5-7" sheetId="7" r:id="rId7"/>
     <sheet name="8" sheetId="8" r:id="rId8"/>
     <sheet name="9" sheetId="9" r:id="rId9"/>
     <sheet name="10" sheetId="10" r:id="rId10"/>
@@ -39,12 +39,12 @@
     <sheet name="30" sheetId="30" r:id="rId30"/>
     <sheet name="31" sheetId="31" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="101">
   <si>
     <t>Retail Name</t>
   </si>
@@ -305,6 +305,48 @@
   </si>
   <si>
     <t>Desh Telecom</t>
+  </si>
+  <si>
+    <t>Cd sound</t>
+  </si>
+  <si>
+    <t>Siddik ele</t>
+  </si>
+  <si>
+    <t>Sr ele</t>
+  </si>
+  <si>
+    <t>Moom tel</t>
+  </si>
+  <si>
+    <t>Kabir//Motiur tel</t>
+  </si>
+  <si>
+    <t>Arham telecom</t>
+  </si>
+  <si>
+    <t>Desh telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC </t>
+  </si>
+  <si>
+    <t>C21/32</t>
+  </si>
+  <si>
+    <t>Bismillah Telecom</t>
+  </si>
+  <si>
+    <t>Rose Mobile</t>
+  </si>
+  <si>
+    <t>Biswash Telecom</t>
+  </si>
+  <si>
+    <t>Zilani Exclusive</t>
+  </si>
+  <si>
+    <t>8pro</t>
   </si>
 </sst>
 </file>
@@ -23680,7 +23722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -24946,17 +24988,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -25028,8 +25070,8 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -25046,8 +25088,8 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -25097,12 +25139,14 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -25121,6 +25165,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -25134,12 +25179,14 @@
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -25153,6 +25200,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -25173,278 +25221,208 @@
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="9"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="C48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -25482,151 +25460,122 @@
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
@@ -25720,111 +25669,27 @@
       <c r="C158" s="9"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
+      <c r="C164" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:D17">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26719,8 +26584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26750,298 +26615,682 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092051977939</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052948673</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053866056</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092053987415</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052623615</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050807096</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053869233</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053872237</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052623656</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050805553</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050752730</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092054279358</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092052623458</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623051370790</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>861180050804234</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052623318</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052745558</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052745954</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092052623110</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>861180050738937</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092054279978</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092053415599</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052948475</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5">
+        <v>861180050805017</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092054278335</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092054279895</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092053792591</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050809290</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5">
+        <v>861180050746955</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092053487374</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092053868870</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053866718</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623051369131</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5">
+        <v>861180050804358</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5">
+        <v>861180050805231</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092052189351</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092053792278</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092053526254</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092053869993</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867872050437676</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867872050437932</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092052950695</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092053869753</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092052621395</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050738499</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5">
+        <v>861180050809357</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092052622039</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092053792690</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -27596,6 +27845,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:D49">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="108">
   <si>
     <t>Retail Name</t>
   </si>
@@ -347,6 +347,27 @@
   </si>
   <si>
     <t>8pro</t>
+  </si>
+  <si>
+    <t>Momtaj tel</t>
+  </si>
+  <si>
+    <t>friends mob</t>
+  </si>
+  <si>
+    <t>Kabir//Linima singra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello Natore </t>
+  </si>
+  <si>
+    <t>Kabir//Nabila</t>
+  </si>
+  <si>
+    <t>Brothers Telecom</t>
+  </si>
+  <si>
+    <t>Usha Electronics</t>
   </si>
 </sst>
 </file>
@@ -26584,7 +26605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -27854,10 +27875,1092 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G192"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050810710</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092054276313</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092054277113</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092054280331</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092054279515</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092054278418</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092054279978</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092054268690</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092054278434</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092054276412</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092054280232</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092054280836</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092054280794</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8">
+        <v>869092053416993</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052139877</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092054279176</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052744957</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092054278673</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867872050438054</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092054276131</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092054276115</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092054275455</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092053486772</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092054277451</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092054275679</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D27">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27887,153 +28990,303 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867872050427610</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050806957</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053419690</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052102172</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053423551</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052622674</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053792757</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053792799</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052745590</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052744999</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092054578791</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869092054576712</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092054577538</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092054574154</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092054571978</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092054574097</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092054575219</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092054572356</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092054575490</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092054572414</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092054574790</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092054572372</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092054573990</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092054575250</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092054574733</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
@@ -28735,889 +29988,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,15 @@
     <sheet name="30" sheetId="30" r:id="rId30"/>
     <sheet name="31" sheetId="31" r:id="rId31"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11'!$A$1:$D$56</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="136">
   <si>
     <t>Retail Name</t>
   </si>
@@ -368,6 +371,90 @@
   </si>
   <si>
     <t>Usha Electronics</t>
+  </si>
+  <si>
+    <t>Kabir//Farha</t>
+  </si>
+  <si>
+    <t>Kabir//Sohel Store</t>
+  </si>
+  <si>
+    <t>Dipto Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Geetanjoli</t>
+  </si>
+  <si>
+    <t>Sarkar tel</t>
+  </si>
+  <si>
+    <t>Hello natore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c25s-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-64) </t>
+  </si>
+  <si>
+    <t>Kabir//HS Mobile</t>
+  </si>
+  <si>
+    <t>Dighe</t>
+  </si>
+  <si>
+    <t>Saju Telecom</t>
+  </si>
+  <si>
+    <t>moom tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (8pro)</t>
+  </si>
+  <si>
+    <t>Bishwash mob</t>
+  </si>
+  <si>
+    <t>Kabir//Satata Arbab</t>
+  </si>
+  <si>
+    <t>Usha ele</t>
+  </si>
+  <si>
+    <t>sohan ent</t>
+  </si>
+  <si>
+    <t>Desh</t>
+  </si>
+  <si>
+    <t>Noor tel</t>
+  </si>
+  <si>
+    <t>Zamzam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamzam </t>
+  </si>
+  <si>
+    <t>Bismillah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bina mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-64)</t>
+  </si>
+  <si>
+    <t>(Realme 8)</t>
+  </si>
+  <si>
+    <t>Kabir//Liton telecom</t>
+  </si>
+  <si>
+    <t>Saju</t>
+  </si>
+  <si>
+    <t>Kabir//Anowor</t>
   </si>
 </sst>
 </file>
@@ -769,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +2081,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,124 +2111,284 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092054268914</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092054276651</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050810777</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050739539</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052621098</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052620975</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052188353</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053359813</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052621593</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052621593</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092054636714</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092052745996</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5">
+        <v>861180050802717</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050810678</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092054637530</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>869092054577736</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052623276</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052623771</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5">
+        <v>861180050738879</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867872050437718</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -2870,6 +3117,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D22">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2878,15 +3128,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -2909,344 +3159,784 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092054425571</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8">
+        <v>869092054581092</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050803814</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867872050744998</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092054425654</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092054276495</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053521131</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092054589319</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092054276511</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092054579070</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050804911</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092054425217</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092054636110</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092054579310</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092054425530</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092054583973</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092054580193</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092054582512</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092054575912</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092054580110</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092054578312</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092054585291</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092054584179</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092054579518</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>861180050806759</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050807294</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092052745673</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050808938</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092054275976</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092054276354</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092054425613</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092054576134</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092054269052</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>861180050746575</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092053523715</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092053521255</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092054579179</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092054583254</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092054425795</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092054586034</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092054584997</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092054586356</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092053868318</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092054576878</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050738614</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092054584831</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092054575375</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092054581357</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092054578452</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="4">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5">
+        <v>861180050800299</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="4">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>861180050968153</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5">
+        <v>861180050754397</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092054583890</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092054424533</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092054589376</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,6 +4445,10 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D56"/>
+  <sortState ref="A2:C52">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10843,7 +11537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -20829,7 +21523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -23743,7 +24437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -26605,8 +27299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27314,30 +28008,62 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092053792773</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092052622310</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092053418650</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092053792872</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -27877,8 +28603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28959,8 +29685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28999,485 +29725,775 @@
       <c r="C2" s="5">
         <v>867872050427610</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="4">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="5">
-        <v>861180050806957</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>869092053487317</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
       </c>
       <c r="C4" s="5">
-        <v>869092053419690</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>861180050739190</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
-        <v>869092052102172</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>867872050427297</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
-        <v>869092053423551</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>869092053792815</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5">
-        <v>869092052622674</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>869092052622351</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
-        <v>869092053792757</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>869092054636235</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>869092053792799</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>869092054639130</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5">
-        <v>869092052745590</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>867623051485358</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5">
-        <v>869092052744999</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>867623051475292</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
-        <v>869092054578791</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>869092052165054</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8">
-        <v>869092054576712</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053363294</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5">
-        <v>869092054577538</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>869092053420631</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
-        <v>869092054574154</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>869092053422991</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5">
-        <v>869092054571978</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>869092053359730</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5">
-        <v>869092054574097</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>869092053360316</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
-        <v>869092054575219</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>869092053420672</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5">
-        <v>869092054572356</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>867623051480755</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5">
-        <v>869092054575490</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>869092053360316</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5">
-        <v>869092054572414</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>869092054276297</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5">
-        <v>869092054574790</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>869092053417033</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5">
-        <v>869092054572372</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>869092052745632</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5">
-        <v>869092054573990</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>869092054278475</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5">
-        <v>869092054575250</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>861180050806072</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092054636854</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092054638033</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092054636938</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050806957</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092053419690</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092052102172</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092053423551</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C33" s="5">
+        <v>869092052622674</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092053792757</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092053792799</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092052745590</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092052744999</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092054578791</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="8">
+        <v>869092054576712</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092054577538</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092054574154</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092054571978</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092054574097</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092054575219</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092054572356</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092054575490</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092054572414</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092054574790</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092054572372</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092054573990</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092054575250</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5">
         <v>869092054574733</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092053425317</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092053358799</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623051468859</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623051482397</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -29986,6 +31002,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:D56">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="142">
   <si>
     <t>Retail Name</t>
   </si>
@@ -455,6 +455,24 @@
   </si>
   <si>
     <t>Kabir//Anowor</t>
+  </si>
+  <si>
+    <t>Tuhin Mobile</t>
+  </si>
+  <si>
+    <t>S r ele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir//Liton telecom </t>
+  </si>
+  <si>
+    <t>kabir//Moriam</t>
+  </si>
+  <si>
+    <t>Moom Telecom</t>
+  </si>
+  <si>
+    <t>Roktim Electronics</t>
   </si>
 </sst>
 </file>
@@ -3128,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,10 +3958,18 @@
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092054576019</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,852 +4514,1847 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050807054</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092054580573</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092054593311</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092054425316</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092054425019</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092054579658</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092054566374</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092054585135</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092054585770</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092054585317</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092054586810</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092054586570</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092054572133</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050804499</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5">
+        <v>861180050739893</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050753373</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052621254</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092053986912</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092052622518</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052745491</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052745434</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092054280299</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092054279630</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092053986771</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053986979</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092053986839</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>861180050968294</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050756772</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092054585259</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092054566671</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092054567174</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092054585937</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5">
+        <v>861180050806296</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5">
+        <v>861180050968179</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092054580094</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092054583098</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092054583916</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092054590952</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092054584070</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092054586554</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092054584914</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092054584252</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092054585531</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092054585374</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092054571952</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092054572091</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092054566333</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092054572836</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092054591778</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092054566713</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092054578577</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092054425431</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="8">
+        <v>869092054280976</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092054278699</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092052621932</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092052623193</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="4">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5">
+        <v>861180050968336</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867872050744295</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869092054589830</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092054586737</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092054577017</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869092054577033</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869092054587552</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867872050744675</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869092054278517</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869092054587131</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="5">
+        <v>869092054280190</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869092054280554</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869092054576951</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869092054577579</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5">
+        <v>861180050753753</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="5">
+        <v>861180050807195</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="5">
+        <v>869092054585093</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="5">
+        <v>869092054425878</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869092054425837</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="5">
+        <v>869092054278137</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869092052950778</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="4">
+        <v>8</v>
+      </c>
+      <c r="C79" s="5">
+        <v>861180050968237</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C184" s="9"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C185" s="9"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C186" s="9"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C187" s="9"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C189" s="11"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C190" s="11"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C191" s="11"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D78">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="152">
   <si>
     <t>Retail Name</t>
   </si>
@@ -474,6 +474,36 @@
   <si>
     <t>Roktim Electronics</t>
   </si>
+  <si>
+    <t>Kabir//Rasel DSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismillah mobile </t>
+  </si>
+  <si>
+    <t>Gstore</t>
+  </si>
+  <si>
+    <t>Boisakhi tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuhin mobile </t>
+  </si>
+  <si>
+    <t>Kabir//Imran Tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zilani mobile </t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Kabir//Fahim mob</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
 </sst>
 </file>
 
@@ -4483,7 +4513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -7248,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7279,248 +7309,568 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092054588774</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092054588295</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092054027658</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092054279572</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092054426736</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092054279135</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867872050744592</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>861180050987575</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092054276719</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867872050427578</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050973898</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092054279655</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092054427338</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092054279911</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>861180050830890</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050987773</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092054280158</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092054027617</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
+        <v>869092054028334</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092054426777</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092054278855</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092054027799</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092054268377</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092054027278</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092054576852</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092054425993</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092054426413</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092054027013</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092052623094</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092052622294</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092054276156</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092054426538</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092054426637</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092054426330</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092054028615</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092054028375</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092054426876</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092054581191</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092054634677</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092054425399</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8125,6 +8475,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D41">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="163">
   <si>
     <t>Retail Name</t>
   </si>
@@ -504,6 +504,39 @@
   <si>
     <t>ok</t>
   </si>
+  <si>
+    <t>Sikreeti Times</t>
+  </si>
+  <si>
+    <t>Friends Mobile Collection</t>
+  </si>
+  <si>
+    <t>dfgxjh</t>
+  </si>
+  <si>
+    <t>Kabir//Bismillah</t>
+  </si>
+  <si>
+    <t>dfgh</t>
+  </si>
+  <si>
+    <t>Mimi Electric</t>
+  </si>
+  <si>
+    <t>C21/65</t>
+  </si>
+  <si>
+    <t>C21/66</t>
+  </si>
+  <si>
+    <t>C21/67</t>
+  </si>
+  <si>
+    <t>C21/68</t>
+  </si>
+  <si>
+    <t>Rasel Telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -524,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,6 +636,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7279,7 +7330,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7631,60 +7682,60 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="14">
         <v>869092054027278</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>149</v>
+      <c r="D25" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="14">
         <v>869092054576852</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>35</v>
+      <c r="D26" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="14">
         <v>869092054425993</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>35</v>
+      <c r="D27" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="14">
         <v>869092054426413</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>149</v>
+      <c r="D28" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8486,8 +8537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8517,206 +8568,473 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867872050438252</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092054426033</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050968435</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092054425373</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050986437</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050833696</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8">
+        <v>869092054590150</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092054587495</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053680150</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092054426470</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092053682438</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092054426579</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092054279036</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050968195</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092054028672</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050984879</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092053680713</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092053682677</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092053681372</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092054002677</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092053681190</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092054028391</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092054576050</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092054586091</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092054425498</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050985918</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092054028631</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092054279879</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092054426512</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092054587271</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092054426835</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092052948897</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5">
+        <v>861180050833712</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -9363,6 +9681,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C31">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9372,7 +9693,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9402,58 +9723,130 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092054028292</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092054571911</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092054426215</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092054425910</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092054425951</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092054026890</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052948731</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092054315095</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092054348054</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -28673,8 +29066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29546,6 +29939,9 @@
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C70" s="9"/>
       <c r="G70" s="9"/>
     </row>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="173">
   <si>
     <t>Retail Name</t>
   </si>
@@ -537,6 +537,36 @@
   <si>
     <t>Rasel Telecom</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tuhin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir//H.s. mobile </t>
+  </si>
+  <si>
+    <t>Kabir//Molla Singra</t>
+  </si>
+  <si>
+    <t>Bina mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir//Arshi </t>
+  </si>
+  <si>
+    <t>C d sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir//Tutul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dighe </t>
+  </si>
+  <si>
+    <t>C25s/64</t>
+  </si>
+  <si>
+    <t>C25s/65</t>
+  </si>
 </sst>
 </file>
 
@@ -7329,8 +7359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8538,7 +8568,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9692,8 +9722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9849,58 +9879,130 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052949796</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092054424350</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869092053681836</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092053682537</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092054344756</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092054586950</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052950711</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>861180050833738</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867872050383912</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -9912,7 +10014,6 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -10647,10 +10748,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10680,298 +10781,683 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092054572018</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623051503192</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623051504679</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052949531</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053673031</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8">
+        <v>867623051503317</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623051504950</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623051503275</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5">
+        <v>861180050833795</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092054347973</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092054345795</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053671233</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>861180050753472</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092053681059</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092054343832</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092054345498</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092054003030</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092053672850</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092053672272</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623051503119</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623051504810</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092054893612</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092054894156</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092054893935</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092055008558</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092055008038</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092055007717</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051506674</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051506096</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051501212</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623051506336</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623051506757</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092054345258</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092053681414</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092053869712</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092054002776</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092054002495</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092054893554</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092055008731</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623051506872</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623051506211</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623051507078</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623051506195</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623051501311</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050925856</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867872050744659</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092054341117</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092053870157</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -10985,7 +11471,6 @@
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -10998,6 +11483,7 @@
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -11091,10 +11577,7 @@
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11295,7 +11778,6 @@
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
@@ -11505,7 +11987,7 @@
       <c r="C186" s="9"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -11522,10 +12004,10 @@
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:D49">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="174">
   <si>
     <t>Retail Name</t>
   </si>
@@ -567,6 +567,9 @@
   <si>
     <t>C25s/65</t>
   </si>
+  <si>
+    <t>Tuhin Mobile Center</t>
+  </si>
 </sst>
 </file>
 
@@ -9722,7 +9725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
@@ -16693,7 +16696,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17577,8 +17580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17608,148 +17611,340 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623051760792</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623051760693</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623051760677</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623051759950</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623051851971</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623051852094</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092055045774</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092055104696</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092055163916</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092055041955</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092055111691</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="8">
+        <v>867623051760271</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623051851658</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623051852052</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092055222472</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092055222290</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092055222415</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092055222639</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092055222456</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623051854298</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623051854850</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623051762590</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623051762350</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623051760818</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="191">
   <si>
     <t>Retail Name</t>
   </si>
@@ -570,6 +570,57 @@
   <si>
     <t>Tuhin Mobile Center</t>
   </si>
+  <si>
+    <t>Kobir talecom</t>
+  </si>
+  <si>
+    <t>Mollah</t>
+  </si>
+  <si>
+    <t>T Am</t>
+  </si>
+  <si>
+    <t>Sumon badars mukara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bina Das </t>
+  </si>
+  <si>
+    <t>Wasif telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abc </t>
+  </si>
+  <si>
+    <t>Kabir Telecom/Eidris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>H.s. mobile</t>
+  </si>
+  <si>
+    <t>Sikrity times</t>
+  </si>
+  <si>
+    <t>biswash mob</t>
+  </si>
+  <si>
+    <t>(C25 s28)</t>
+  </si>
+  <si>
+    <t>Babu com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.s. mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c21-32) </t>
+  </si>
 </sst>
 </file>
 
@@ -17580,8 +17631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17947,305 +17998,654 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <v>861180050926193</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623051854678</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051855113</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051855279</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051854694</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051854371</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623051857176</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623051855675</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623051857010</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623051855659</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623051854777</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623051855238</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623051854215</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623051855451</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623051854231</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623051854736</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623051855139</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092055074196</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623051855972</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623051854892</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623051759976</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867623051851195</v>
+      </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092055075458</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623051851419</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623051852011</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623051855931</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623051855352</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="5">
+        <v>867623051854652</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867623051856996</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623051857135</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623051855717</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="5">
+        <v>867623051854835</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623051856939</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623051855212</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623051855410</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="5">
+        <v>867623051855378</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="5">
+        <v>867623051856871</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869092055042219</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="5">
+        <v>867623051851492</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867623051851914</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
+      <c r="A66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="5">
+        <v>867623051857036</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623051856111</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -18649,6 +19049,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A27:D67">
+    <sortCondition ref="A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18657,14 +19060,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -18673,7 +19076,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18687,394 +19090,893 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623051852631</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623051855436</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623051995273</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050985215</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623051997931</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623051853373</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623051854819</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092055222738</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623051991355</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623051856137</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623051854975</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623051856178</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623051865930</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050984333</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092055111857</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092055222555</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623051865351</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623051865195</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623051991538</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623051991199</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623051865856</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623051865997</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623051865559</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623051865211</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623051865252</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623051865872</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051997915</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051854314</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051866094</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051854116</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623051996933</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623051854637</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623051863810</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623051865278</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623051865591</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092055137050</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623051853670</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623051853332</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623051853316</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092055112673</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092055246737</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623051997717</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623051865294</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623051865575</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623051853852</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="8">
+        <v>867623051854538</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092055222597</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623051855733</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623051866110</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092055074154</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623051854496</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="5">
+        <v>867623051854470</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867623051853993</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623051996610</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623051853191</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="5">
+        <v>867623051857119</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623051856897</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623051856954</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623051851716</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="5">
+        <v>867623051865336</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="5">
+        <v>867623051856756</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="5">
+        <v>867623051991595</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -19534,6 +20436,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D63">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="12" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="197">
   <si>
     <t>Retail Name</t>
   </si>
@@ -621,6 +621,24 @@
   <si>
     <t xml:space="preserve">(c21-32) </t>
   </si>
+  <si>
+    <t>(c25)s 128</t>
+  </si>
+  <si>
+    <t>noor tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose Mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose mobile </t>
+  </si>
+  <si>
+    <t>B.B talecom tamaltola..</t>
+  </si>
+  <si>
+    <t>C25/128</t>
+  </si>
 </sst>
 </file>
 
@@ -19060,8 +19078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23102,8 +23120,1242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092055267170</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050888690</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623052259174</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623052259471</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050887676</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623052260099</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623052260958</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092055267675</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092055263518</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623052218394</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092055263559</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623052218519</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623052218154</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623052257079</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623052257236</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623052257376</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092055267279</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092055267576</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623052259596</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092055267212</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623052260792</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092055122250</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623052259752</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623052259570</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092055267550</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8">
+        <v>869092055267477</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>861180050986973</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092055247297</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623052260552</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092055267410</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623052224152</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623052218550</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623052218196</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623052218170</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5">
+        <v>861180050986478</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="4">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>861180050986379</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623052257012</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623052260636</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623052218535</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623052218576</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623052256790</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="4">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>861180050986890</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="4">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5">
+        <v>861180050984655</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623052224079</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C45">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23133,996 +24385,219 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623052224657</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623052224350</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623052261394</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623052261295</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623052262616</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092055317850</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092055320391</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092055321191</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092055320250</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092055322090</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092055321811</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="8">
+        <v>867623052224319</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623052224533</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092055317355</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092055319419</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092055318817</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092055319179</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092055320490</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
+++ b/realme/AUGUST/Others/Entry_Imei-List -August.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="207">
   <si>
     <t>Retail Name</t>
   </si>
@@ -639,6 +639,36 @@
   <si>
     <t>C25/128</t>
   </si>
+  <si>
+    <t>Bina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile park </t>
+  </si>
+  <si>
+    <t>Zam Zam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 8 5G) </t>
+  </si>
+  <si>
+    <t>A B C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.h.mibile </t>
+  </si>
+  <si>
+    <t>(8-5G)</t>
+  </si>
+  <si>
+    <t>momtaj tel</t>
+  </si>
+  <si>
+    <t>Wasif</t>
+  </si>
+  <si>
+    <t>Desh mobile</t>
+  </si>
 </sst>
 </file>
 
@@ -24355,7 +24385,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24386,479 +24416,835 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C2" s="5">
-        <v>867623052224657</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>867623052261337</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="5">
-        <v>867623052224350</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>867623052260438</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C4" s="5">
-        <v>867623052261394</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>869701050417974</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5">
-        <v>867623052261295</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>869092055319013</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C6" s="5">
-        <v>867623052262616</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>867623052260875</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5">
-        <v>869092055317850</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>869092055321134</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="C8" s="5">
-        <v>869092055320391</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>869701050391310</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
-        <v>869092055321191</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>867623052224558</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="C10" s="5">
-        <v>869092055320250</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>869701050281958</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="C11" s="5">
-        <v>869092055322090</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>869701050281479</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5">
-        <v>869092055321811</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>861180050886454</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="8">
-        <v>867623052224319</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092055320532</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
-        <v>867623052224533</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>869092055319898</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5">
-        <v>869092055317355</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>869092055315854</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5">
-        <v>869092055319419</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>867623052225555</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5">
-        <v>869092055318817</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>867623052262699</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5">
-        <v>869092055319179</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>867623052261170</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>206</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
       </c>
       <c r="C19" s="5">
-        <v>869092055320490</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>861180050738978</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092055131558</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092055122193</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623052224293</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869701050282998</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869701050263055</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623052224491</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092055321332</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092055136995</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092055321571</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623052261618</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623052224392</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869701050282717</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092055104217</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623052224459</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869701050621138</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="8">
+        <v>867623052224319</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623052224533</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092055317355</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092055319419</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092055318817</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092055319179</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092055320490</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092055122276</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092055042631</v>
+      </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092055122557</v>
+      </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092055323114</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623052261352</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867623052224657</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623052224350</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623052261394</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623052261295</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623052262616</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092055317850</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092055320391</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092055321191</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092055320250</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092055322090</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092055321811</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092054931958</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869092055122292</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="4">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5">
+        <v>861180050886710</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -25339,6 +25725,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D60">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
